--- a/excel/Demo.xlsx
+++ b/excel/Demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uttam/Framework/Framework/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uttam/26March2024/JavaSeleniumFramework/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6931FDF1-8D7F-0B47-86EE-5B46E4A443F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126BE0E7-286B-924C-A20A-518B24823EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3A091490-F178-EB4E-BEFD-32101EA72FAD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3A091490-F178-EB4E-BEFD-32101EA72FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,8 +439,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
